--- a/Сравнение моделей CLIP.xlsx
+++ b/Сравнение моделей CLIP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/z1w0k/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47F4F9DC-D94D-574F-A55F-CF685F4DDC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9173230C-EFE4-2A47-8AFD-BB9F45F3F0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="600" windowWidth="28040" windowHeight="15820" xr2:uid="{C45842F9-25D4-BC42-A102-B4DA33E0F7CA}"/>
+    <workbookView xWindow="220" yWindow="1600" windowWidth="28040" windowHeight="15820" xr2:uid="{C45842F9-25D4-BC42-A102-B4DA33E0F7CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -547,19 +547,22 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A6" sqref="A6:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="33.83203125" customWidth="1"/>
     <col min="8" max="8" width="28.6640625" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">

--- a/Сравнение моделей CLIP.xlsx
+++ b/Сравнение моделей CLIP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/z1w0k/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9173230C-EFE4-2A47-8AFD-BB9F45F3F0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80919E3B-3C7F-8C4C-B100-99C271DD3165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="1600" windowWidth="28040" windowHeight="15820" xr2:uid="{C45842F9-25D4-BC42-A102-B4DA33E0F7CA}"/>
+    <workbookView xWindow="220" yWindow="600" windowWidth="28040" windowHeight="15820" xr2:uid="{C45842F9-25D4-BC42-A102-B4DA33E0F7CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>openai/clip-vit-base-patch32</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Самая быстрая, мало памяти</t>
   </si>
   <si>
-    <t>Точнее patch32, почти та же скорость</t>
-  </si>
-  <si>
     <t>Значительно выше точность</t>
   </si>
   <si>
@@ -134,6 +131,12 @@
   </si>
   <si>
     <t>99.64%</t>
+  </si>
+  <si>
+    <t>Точнее patch32</t>
+  </si>
+  <si>
+    <t>Attention_heads</t>
   </si>
 </sst>
 </file>
@@ -544,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E56A85A-AA35-4543-AE08-E89EE3940414}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -558,14 +561,15 @@
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="33.83203125" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="11" width="10.83203125" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" hidden="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="33.83203125" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -585,22 +589,25 @@
         <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -619,23 +626,26 @@
       <c r="F2" s="4">
         <v>512</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="4">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="I2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="6">
+      <c r="L2" s="6">
         <v>5.1388888888888894E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -654,23 +664,26 @@
       <c r="F3" s="4">
         <v>512</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
+      <c r="G3" s="4">
+        <v>8</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="6">
         <v>8.6805555555555566E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -689,23 +702,26 @@
       <c r="F4" s="4">
         <v>768</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="G4" s="4">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="6">
+      <c r="L4" s="6">
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -724,19 +740,22 @@
       <c r="F5" s="4">
         <v>768</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>33</v>
+      <c r="G5" s="4">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="6">
         <v>0.35069444444444442</v>
       </c>
     </row>
